--- a/2023C/Problem_C_Data_Wordle.xlsx
+++ b/2023C/Problem_C_Data_Wordle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ballade0d/PycharmProjects/mcm/2023C/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2595C7-AE58-684E-B4CE-30C421FD097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E09C3A-B3E0-D44B-B96E-867B9562CBBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{BE11D8C7-548A-6E47-9F96-66C18673C8FF}"/>
   </bookViews>
@@ -949,9 +949,6 @@
     <t>sloth</t>
   </si>
   <si>
-    <t>marxh</t>
-  </si>
-  <si>
     <t>bough</t>
   </si>
   <si>
@@ -1148,6 +1145,9 @@
   </si>
   <si>
     <t>7 or more tries (X)</t>
+  </si>
+  <si>
+    <t>march</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1517,8 @@
   <dimension ref="A1:L480"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1571,7 +1571,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1582,7 +1582,7 @@
         <v>560</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D2" s="2">
         <v>20380</v>
@@ -1620,7 +1620,7 @@
         <v>559</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D3" s="2">
         <v>21204</v>
@@ -1658,7 +1658,7 @@
         <v>558</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D4" s="2">
         <v>20001</v>
@@ -1696,7 +1696,7 @@
         <v>557</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D5" s="2">
         <v>20160</v>
@@ -1734,7 +1734,7 @@
         <v>556</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D6" s="2">
         <v>20879</v>
@@ -1772,7 +1772,7 @@
         <v>555</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D7" s="2">
         <v>20011</v>
@@ -1810,7 +1810,7 @@
         <v>554</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D8" s="2">
         <v>15554</v>
@@ -1848,7 +1848,7 @@
         <v>553</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D9" s="2">
         <v>20281</v>
@@ -1886,7 +1886,7 @@
         <v>552</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D10" s="2">
         <v>21937</v>
@@ -1924,7 +1924,7 @@
         <v>551</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D11" s="2">
         <v>20490</v>
@@ -1962,7 +1962,7 @@
         <v>550</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D12" s="2">
         <v>22180</v>
@@ -2000,7 +2000,7 @@
         <v>549</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D13" s="1">
         <v>24137</v>
@@ -2038,7 +2038,7 @@
         <v>548</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D14" s="2">
         <v>26010</v>
@@ -2076,7 +2076,7 @@
         <v>547</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D15" s="2">
         <v>22166</v>
@@ -2114,7 +2114,7 @@
         <v>546</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D16" s="2">
         <v>22336</v>
@@ -2152,7 +2152,7 @@
         <v>545</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D17" s="2">
         <v>22853</v>
@@ -2190,7 +2190,7 @@
         <v>544</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D18" s="2">
         <v>22176</v>
@@ -2228,7 +2228,7 @@
         <v>543</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D19" s="2">
         <v>20824</v>
@@ -2266,7 +2266,7 @@
         <v>542</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="2">
         <v>24101</v>
@@ -2304,7 +2304,7 @@
         <v>541</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="2">
         <v>22873</v>
@@ -2342,7 +2342,7 @@
         <v>540</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D22" s="2">
         <v>21947</v>
@@ -2380,7 +2380,7 @@
         <v>539</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D23" s="2">
         <v>21157</v>
@@ -2418,7 +2418,7 @@
         <v>538</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D24" s="2">
         <v>23640</v>
@@ -2456,7 +2456,7 @@
         <v>537</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D25" s="2">
         <v>21199</v>
@@ -2494,7 +2494,7 @@
         <v>536</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D26" s="2">
         <v>24899</v>
@@ -2532,7 +2532,7 @@
         <v>535</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D27" s="2">
         <v>23509</v>
@@ -2570,7 +2570,7 @@
         <v>534</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D28" s="2">
         <v>23153</v>
@@ -2608,7 +2608,7 @@
         <v>533</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D29" s="2">
         <v>25577</v>
@@ -2646,7 +2646,7 @@
         <v>532</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D30" s="2">
         <v>23873</v>
@@ -2684,7 +2684,7 @@
         <v>531</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D31" s="2">
         <v>24646</v>
@@ -2722,7 +2722,7 @@
         <v>530</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D32" s="2">
         <v>22628</v>
@@ -2760,7 +2760,7 @@
         <v>529</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D33" s="2">
         <v>2569</v>
@@ -2798,7 +2798,7 @@
         <v>528</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D34" s="2">
         <v>23739</v>
@@ -2836,7 +2836,7 @@
         <v>527</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D35" s="2">
         <v>26051</v>
@@ -2874,7 +2874,7 @@
         <v>526</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D36" s="2">
         <v>25206</v>
@@ -2912,7 +2912,7 @@
         <v>525</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D37" s="2">
         <v>26381</v>
@@ -2950,7 +2950,7 @@
         <v>524</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D38" s="2">
         <v>24197</v>
@@ -2988,7 +2988,7 @@
         <v>523</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D39" s="2">
         <v>27705</v>
@@ -3026,7 +3026,7 @@
         <v>522</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D40" s="2">
         <v>26663</v>
@@ -3064,7 +3064,7 @@
         <v>521</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D41" s="2">
         <v>27437</v>
@@ -3102,7 +3102,7 @@
         <v>520</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D42" s="2">
         <v>24288</v>
@@ -3140,7 +3140,7 @@
         <v>519</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D43" s="2">
         <v>24991</v>
@@ -3178,7 +3178,7 @@
         <v>518</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D44" s="2">
         <v>24749</v>
@@ -3216,7 +3216,7 @@
         <v>517</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D45" s="2">
         <v>29208</v>
@@ -3254,7 +3254,7 @@
         <v>516</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D46" s="2">
         <v>27465</v>
@@ -3292,7 +3292,7 @@
         <v>515</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D47" s="2">
         <v>25576</v>
@@ -3330,7 +3330,7 @@
         <v>514</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D48" s="2">
         <v>27475</v>
@@ -3368,7 +3368,7 @@
         <v>513</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D49" s="2">
         <v>26536</v>
@@ -3406,7 +3406,7 @@
         <v>512</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D50" s="2">
         <v>25085</v>
@@ -3444,7 +3444,7 @@
         <v>511</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D51" s="2">
         <v>24660</v>
@@ -3482,7 +3482,7 @@
         <v>510</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D52" s="2">
         <v>25993</v>
@@ -3520,7 +3520,7 @@
         <v>509</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D53" s="2">
         <v>27467</v>
@@ -3558,7 +3558,7 @@
         <v>508</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D54" s="2">
         <v>28984</v>
@@ -3596,7 +3596,7 @@
         <v>507</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D55" s="2">
         <v>27213</v>
@@ -3634,7 +3634,7 @@
         <v>506</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D56" s="2">
         <v>26096</v>
@@ -3672,7 +3672,7 @@
         <v>505</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D57" s="2">
         <v>31068</v>
@@ -3710,7 +3710,7 @@
         <v>504</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D58" s="2">
         <v>29743</v>
@@ -3748,7 +3748,7 @@
         <v>503</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D59" s="2">
         <v>27330</v>
@@ -3786,7 +3786,7 @@
         <v>502</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D60" s="2">
         <v>29554</v>
@@ -3824,7 +3824,7 @@
         <v>501</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D61" s="2">
         <v>27670</v>
@@ -3862,7 +3862,7 @@
         <v>500</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D62" s="2">
         <v>27502</v>
@@ -3900,7 +3900,7 @@
         <v>499</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D63" s="2">
         <v>26498</v>
@@ -3938,7 +3938,7 @@
         <v>498</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D64" s="2">
         <v>24672</v>
@@ -3976,7 +3976,7 @@
         <v>497</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D65" s="2">
         <v>25156</v>
@@ -4888,7 +4888,7 @@
         <v>473</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="D89" s="2">
         <v>30935</v>
@@ -4926,7 +4926,7 @@
         <v>472</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D90" s="2">
         <v>32014</v>
